--- a/src/resources/sifre.xlsx
+++ b/src/resources/sifre.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="2">
   <si>
     <t>Kullaniciteam16!</t>
   </si>
@@ -399,12 +399,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
